--- a/public/assets/users/ХР.xlsx
+++ b/public/assets/users/ХР.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="355">
   <si>
     <t>№</t>
   </si>
@@ -1115,6 +1115,18 @@
   </si>
   <si>
     <t>Отабек</t>
+  </si>
+  <si>
+    <t>Раупов</t>
+  </si>
+  <si>
+    <t>Мухаммад</t>
+  </si>
+  <si>
+    <t>Саййидахмат угли</t>
+  </si>
+  <si>
+    <t>Тошкент таракиёт жамгармаси молиявий назорат болими мутахасиси</t>
   </si>
   <si>
     <t>Гуломов</t>
@@ -1138,6 +1150,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1160,12 +1178,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1174,7 +1186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1206,6 +1218,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1220,81 +1239,80 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1598,21 +1616,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="27.14785714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="13" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="37.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="18.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.899999999999995" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="7" t="s">
         <v>181</v>
       </c>
@@ -1628,9 +1646,9 @@
       <c r="E1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="133.9" customFormat="1" s="5">
+      <c r="F1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="10" t="s">
         <v>186</v>
       </c>
@@ -1648,7 +1666,7 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="60" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A3" s="10" t="s">
         <v>189</v>
       </c>
@@ -1664,7 +1682,7 @@
       </c>
       <c r="F3" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="46.5" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A4" s="10" t="s">
         <v>192</v>
       </c>
@@ -1682,7 +1700,7 @@
       </c>
       <c r="F4" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="46.5" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A5" s="10" t="s">
         <v>195</v>
       </c>
@@ -1700,7 +1718,7 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="46.5" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A6" s="10" t="s">
         <v>198</v>
       </c>
@@ -1718,7 +1736,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="73.5" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="73.5" customFormat="1" s="1">
       <c r="A7" s="10" t="s">
         <v>202</v>
       </c>
@@ -1736,7 +1754,7 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="118.15000000000002" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A8" s="10" t="s">
         <v>205</v>
       </c>
@@ -1754,7 +1772,7 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="121.15000000000002" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A9" s="10" t="s">
         <v>208</v>
       </c>
@@ -1772,7 +1790,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="118.15000000000002" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="118.15000000000002" customFormat="1" s="1">
       <c r="A10" s="10" t="s">
         <v>211</v>
       </c>
@@ -1788,7 +1806,7 @@
       </c>
       <c r="F10" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="117" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="117" customFormat="1" s="1">
       <c r="A11" s="10" t="s">
         <v>213</v>
       </c>
@@ -1806,7 +1824,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="117.59999999999998" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="117.59999999999998" customFormat="1" s="1">
       <c r="A12" s="10" t="s">
         <v>216</v>
       </c>
@@ -1822,7 +1840,7 @@
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="117.59999999999998" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="117.59999999999998" customFormat="1" s="1">
       <c r="A13" s="10" t="s">
         <v>218</v>
       </c>
@@ -1840,7 +1858,7 @@
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A14" s="10" t="s">
         <v>220</v>
       </c>
@@ -1858,7 +1876,7 @@
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="114" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="114" customFormat="1" s="1">
       <c r="A15" s="10" t="s">
         <v>223</v>
       </c>
@@ -1876,7 +1894,7 @@
       </c>
       <c r="F15" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A16" s="10" t="s">
         <v>226</v>
       </c>
@@ -1892,7 +1910,7 @@
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="114" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="114" customFormat="1" s="1">
       <c r="A17" s="10" t="s">
         <v>228</v>
       </c>
@@ -1910,7 +1928,7 @@
       </c>
       <c r="F17" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="141.6" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="141.6" customFormat="1" s="1">
       <c r="A18" s="10" t="s">
         <v>232</v>
       </c>
@@ -1926,7 +1944,7 @@
       </c>
       <c r="F18" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="130.9" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="130.9" customFormat="1" s="1">
       <c r="A19" s="10" t="s">
         <v>235</v>
       </c>
@@ -1944,7 +1962,7 @@
       </c>
       <c r="F19" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="130.9" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="130.9" customFormat="1" s="1">
       <c r="A20" s="10" t="s">
         <v>238</v>
       </c>
@@ -1962,7 +1980,7 @@
       </c>
       <c r="F20" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="130.9" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="130.9" customFormat="1" s="1">
       <c r="A21" s="10" t="s">
         <v>241</v>
       </c>
@@ -1980,7 +1998,7 @@
       </c>
       <c r="F21" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="130.9" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="130.9" customFormat="1" s="1">
       <c r="A22" s="10" t="s">
         <v>244</v>
       </c>
@@ -1998,7 +2016,7 @@
       </c>
       <c r="F22" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="130.9" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="130.9" customFormat="1" s="1">
       <c r="A23" s="10" t="s">
         <v>247</v>
       </c>
@@ -2016,7 +2034,7 @@
       </c>
       <c r="F23" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="130.9" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="130.9" customFormat="1" s="1">
       <c r="A24" s="10" t="s">
         <v>249</v>
       </c>
@@ -2034,7 +2052,7 @@
       </c>
       <c r="F24" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A25" s="10" t="s">
         <v>252</v>
       </c>
@@ -2052,7 +2070,7 @@
       </c>
       <c r="F25" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A26" s="10" t="s">
         <v>255</v>
       </c>
@@ -2070,7 +2088,7 @@
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A27" s="10" t="s">
         <v>258</v>
       </c>
@@ -2088,7 +2106,7 @@
       </c>
       <c r="F27" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A28" s="10" t="s">
         <v>261</v>
       </c>
@@ -2106,7 +2124,7 @@
       </c>
       <c r="F28" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A29" s="10" t="s">
         <v>263</v>
       </c>
@@ -2124,7 +2142,7 @@
       </c>
       <c r="F29" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A30" s="10" t="s">
         <v>266</v>
       </c>
@@ -2142,7 +2160,7 @@
       </c>
       <c r="F30" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A31" s="10" t="s">
         <v>269</v>
       </c>
@@ -2160,7 +2178,7 @@
       </c>
       <c r="F31" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A32" s="10" t="s">
         <v>211</v>
       </c>
@@ -2178,7 +2196,7 @@
       </c>
       <c r="F32" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A33" s="10" t="s">
         <v>213</v>
       </c>
@@ -2196,7 +2214,7 @@
       </c>
       <c r="F33" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A34" s="10" t="s">
         <v>276</v>
       </c>
@@ -2214,7 +2232,7 @@
       </c>
       <c r="F34" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A35" s="10" t="s">
         <v>279</v>
       </c>
@@ -2232,7 +2250,7 @@
       </c>
       <c r="F35" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A36" s="10" t="s">
         <v>282</v>
       </c>
@@ -2250,7 +2268,7 @@
       </c>
       <c r="F36" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A37" s="10" t="s">
         <v>285</v>
       </c>
@@ -2268,7 +2286,7 @@
       </c>
       <c r="F37" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="117.59999999999998" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="117.59999999999998" customFormat="1" s="1">
       <c r="A38" s="10" t="s">
         <v>288</v>
       </c>
@@ -2278,7 +2296,7 @@
       <c r="C38" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="10" t="s">
         <v>290</v>
       </c>
       <c r="E38" s="10" t="s">
@@ -2286,7 +2304,7 @@
       </c>
       <c r="F38" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A39" s="10" t="s">
         <v>291</v>
       </c>
@@ -2302,7 +2320,7 @@
       </c>
       <c r="F39" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A40" s="10" t="s">
         <v>293</v>
       </c>
@@ -2320,7 +2338,7 @@
       </c>
       <c r="F40" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A41" s="10" t="s">
         <v>295</v>
       </c>
@@ -2338,7 +2356,7 @@
       </c>
       <c r="F41" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A42" s="10" t="s">
         <v>297</v>
       </c>
@@ -2356,7 +2374,7 @@
       </c>
       <c r="F42" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A43" s="10" t="s">
         <v>301</v>
       </c>
@@ -2374,7 +2392,7 @@
       </c>
       <c r="F43" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A44" s="10" t="s">
         <v>304</v>
       </c>
@@ -2392,7 +2410,7 @@
       </c>
       <c r="F44" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A45" s="10" t="s">
         <v>308</v>
       </c>
@@ -2410,7 +2428,7 @@
       </c>
       <c r="F45" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A46" s="10" t="s">
         <v>311</v>
       </c>
@@ -2428,7 +2446,7 @@
       </c>
       <c r="F46" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A47" s="10" t="s">
         <v>313</v>
       </c>
@@ -2446,7 +2464,7 @@
       </c>
       <c r="F47" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A48" s="10" t="s">
         <v>255</v>
       </c>
@@ -2464,7 +2482,7 @@
       </c>
       <c r="F48" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A49" s="10" t="s">
         <v>317</v>
       </c>
@@ -2482,7 +2500,7 @@
       </c>
       <c r="F49" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A50" s="10" t="s">
         <v>320</v>
       </c>
@@ -2500,7 +2518,7 @@
       </c>
       <c r="F50" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A51" s="10" t="s">
         <v>323</v>
       </c>
@@ -2518,7 +2536,7 @@
       </c>
       <c r="F51" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A52" s="10" t="s">
         <v>326</v>
       </c>
@@ -2536,7 +2554,7 @@
       </c>
       <c r="F52" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A53" s="10" t="s">
         <v>329</v>
       </c>
@@ -2552,7 +2570,7 @@
       </c>
       <c r="F53" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A54" s="10" t="s">
         <v>331</v>
       </c>
@@ -2570,7 +2588,7 @@
       </c>
       <c r="F54" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="122.45" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="122.45" customFormat="1" s="1">
       <c r="A55" s="10" t="s">
         <v>334</v>
       </c>
@@ -2588,7 +2606,7 @@
       </c>
       <c r="F55" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="117.59999999999998" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="117.59999999999998" customFormat="1" s="1">
       <c r="A56" s="10" t="s">
         <v>337</v>
       </c>
@@ -2606,7 +2624,7 @@
       </c>
       <c r="F56" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="117.59999999999998" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="117.59999999999998" customFormat="1" s="1">
       <c r="A57" s="10" t="s">
         <v>340</v>
       </c>
@@ -2622,7 +2640,7 @@
       </c>
       <c r="F57" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="117.59999999999998" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="117.59999999999998" customFormat="1" s="1">
       <c r="A58" s="10" t="s">
         <v>342</v>
       </c>
@@ -2640,7 +2658,7 @@
       </c>
       <c r="F58" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="117.59999999999998" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="117.59999999999998" customFormat="1" s="1">
       <c r="A59" s="10" t="s">
         <v>345</v>
       </c>
@@ -2658,23 +2676,39 @@
       </c>
       <c r="F59" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="117.59999999999998" customFormat="1" s="5">
-      <c r="A60" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="E60" s="23"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="117.59999999999998" customFormat="1" s="1">
+      <c r="A61" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E61" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="3"/>
+      <c r="F61" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2694,24 +2728,24 @@
   <cols>
     <col min="1" max="1" style="11" width="8.290714285714287" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="12" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="14" width="31.719285714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="14" width="42.86214285714286" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="14" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A2" s="3"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2727,10 +2761,10 @@
       <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87.59999999999998" customFormat="1" s="5">
-      <c r="A3" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87.59999999999998" customFormat="1" s="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -2744,10 +2778,10 @@
       <c r="F3" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87.59999999999998" customFormat="1" s="5">
-      <c r="A4" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87.59999999999998" customFormat="1" s="1">
+      <c r="A4" s="4"/>
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -2761,10 +2795,10 @@
       <c r="F4" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="88.90000000000002" customFormat="1" s="5">
-      <c r="A5" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="88.90000000000002" customFormat="1" s="1">
+      <c r="A5" s="4"/>
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -2778,10 +2812,10 @@
       <c r="F5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="91.90000000000002" customFormat="1" s="5">
-      <c r="A6" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="91.90000000000002" customFormat="1" s="1">
+      <c r="A6" s="4"/>
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -2795,10 +2829,10 @@
       <c r="F6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="88.15000000000002" customFormat="1" s="5">
-      <c r="A7" s="3"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="88.15000000000002" customFormat="1" s="1">
+      <c r="A7" s="4"/>
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -2812,10 +2846,10 @@
       <c r="F7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A8" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A8" s="4"/>
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -2831,8 +2865,8 @@
       </c>
       <c r="G8" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="84.75" customFormat="1" s="5">
-      <c r="A9" s="3"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="84.75" customFormat="1" s="1">
+      <c r="A9" s="4"/>
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -2849,7 +2883,7 @@
       <c r="G9" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="88.15000000000002">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -2863,10 +2897,10 @@
       <c r="F10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="88.15000000000002">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -2880,10 +2914,10 @@
       <c r="F11" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="88.15000000000002">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -2897,10 +2931,10 @@
       <c r="F12" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="88.15000000000002">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -2914,10 +2948,10 @@
       <c r="F13" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="88.15000000000002">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -2931,10 +2965,10 @@
       <c r="F14" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="88.15000000000002">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -2948,10 +2982,10 @@
       <c r="F15" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="88.15000000000002">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -2965,10 +2999,10 @@
       <c r="F16" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="88.15000000000002" customFormat="1" s="5">
-      <c r="A17" s="3"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="88.15000000000002" customFormat="1" s="1">
+      <c r="A17" s="4"/>
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -2982,10 +3016,10 @@
       <c r="F17" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="88.15000000000002" customFormat="1" s="5">
-      <c r="A18" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="88.15000000000002" customFormat="1" s="1">
+      <c r="A18" s="4"/>
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -2999,10 +3033,10 @@
       <c r="F18" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="88.15000000000002" customFormat="1" s="5">
-      <c r="A19" s="3"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="88.15000000000002" customFormat="1" s="1">
+      <c r="A19" s="4"/>
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -3016,10 +3050,10 @@
       <c r="F19" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="88.15000000000002" customFormat="1" s="5">
-      <c r="A20" s="3"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="88.15000000000002" customFormat="1" s="1">
+      <c r="A20" s="4"/>
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -3033,10 +3067,10 @@
       <c r="F20" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="88.15000000000002" customFormat="1" s="5">
-      <c r="A21" s="3"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="88.15000000000002" customFormat="1" s="1">
+      <c r="A21" s="4"/>
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -3050,10 +3084,10 @@
       <c r="F21" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="88.15000000000002" customFormat="1" s="5">
-      <c r="A22" s="3"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="88.15000000000002" customFormat="1" s="1">
+      <c r="A22" s="4"/>
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -3067,7 +3101,7 @@
       <c r="F22" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3093,16 +3127,16 @@
     <col min="6" max="6" style="14" width="21.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A2" s="3"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3119,8 +3153,8 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87.59999999999998" customFormat="1" s="5">
-      <c r="A3" s="3"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87.59999999999998" customFormat="1" s="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -3135,8 +3169,8 @@
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87.59999999999998" customFormat="1" s="5">
-      <c r="A4" s="3"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87.59999999999998" customFormat="1" s="1">
+      <c r="A4" s="4"/>
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -3151,8 +3185,8 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87.59999999999998" customFormat="1" s="5">
-      <c r="A5" s="3"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87.59999999999998" customFormat="1" s="1">
+      <c r="A5" s="4"/>
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -3167,8 +3201,8 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="87.59999999999998" customFormat="1" s="5">
-      <c r="A6" s="3"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="87.59999999999998" customFormat="1" s="1">
+      <c r="A6" s="4"/>
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -3183,8 +3217,8 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="87.59999999999998" customFormat="1" s="5">
-      <c r="A7" s="3"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="87.59999999999998" customFormat="1" s="1">
+      <c r="A7" s="4"/>
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -3199,8 +3233,8 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="87.59999999999998" customFormat="1" s="5">
-      <c r="A8" s="3"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="87.59999999999998" customFormat="1" s="1">
+      <c r="A8" s="4"/>
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -3215,8 +3249,8 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="87.59999999999998" customFormat="1" s="5">
-      <c r="A9" s="3"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="87.59999999999998" customFormat="1" s="1">
+      <c r="A9" s="4"/>
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -3255,18 +3289,18 @@
     <col min="6" max="6" style="14" width="21.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A2" s="3"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3283,8 +3317,8 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A3" s="3"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -3299,8 +3333,8 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A4" s="3"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A4" s="4"/>
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -3315,8 +3349,8 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A5" s="3"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A5" s="4"/>
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -3331,8 +3365,8 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A6" s="3"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A6" s="4"/>
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -3347,8 +3381,8 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A7" s="3"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A7" s="4"/>
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -3363,8 +3397,8 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A8" s="3"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A8" s="4"/>
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -3379,8 +3413,8 @@
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A9" s="3"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A9" s="4"/>
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -3395,8 +3429,8 @@
         <v>98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A10" s="3"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A10" s="4"/>
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -3411,8 +3445,8 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A11" s="3"/>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A11" s="4"/>
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -3451,16 +3485,16 @@
     <col min="6" max="6" style="14" width="21.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A2" s="3"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3477,8 +3511,8 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A3" s="3"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -3493,8 +3527,8 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A4" s="3"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A4" s="4"/>
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -3509,8 +3543,8 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A5" s="3"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A5" s="4"/>
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -3525,8 +3559,8 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A6" s="3"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A6" s="4"/>
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -3541,8 +3575,8 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A7" s="3"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A7" s="4"/>
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -3557,8 +3591,8 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A8" s="3"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A8" s="4"/>
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -3573,8 +3607,8 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A9" s="3"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A9" s="4"/>
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -3589,8 +3623,8 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A10" s="3"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A10" s="4"/>
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -3605,8 +3639,8 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A11" s="3"/>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A11" s="4"/>
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -3621,8 +3655,8 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A12" s="3"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A12" s="4"/>
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -3637,8 +3671,8 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A13" s="3"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A13" s="4"/>
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -3653,8 +3687,8 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A14" s="3"/>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A14" s="4"/>
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -3669,8 +3703,8 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A15" s="3"/>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A15" s="4"/>
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -3685,8 +3719,8 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A16" s="3"/>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A16" s="4"/>
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -3701,8 +3735,8 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A17" s="3"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A17" s="4"/>
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -3717,8 +3751,8 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A18" s="3"/>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A18" s="4"/>
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -3726,15 +3760,15 @@
       <c r="D18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="10" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A19" s="3"/>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A19" s="4"/>
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -3773,16 +3807,16 @@
     <col min="6" max="6" style="14" width="21.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A2" s="3"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3799,8 +3833,8 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A3" s="3"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -3815,8 +3849,8 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A4" s="3"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A4" s="4"/>
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -3831,8 +3865,8 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A5" s="3"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A5" s="4"/>
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -3871,16 +3905,16 @@
     <col min="6" max="6" style="14" width="21.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A2" s="3"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3897,8 +3931,8 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A3" s="3"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -3911,8 +3945,8 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A4" s="3"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A4" s="4"/>
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -3927,8 +3961,8 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A5" s="3"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A5" s="4"/>
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -3943,7 +3977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="87" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="87" customFormat="1" s="1">
       <c r="A6" s="16"/>
       <c r="B6" s="8">
         <v>4</v>
@@ -3983,16 +4017,16 @@
     <col min="6" max="6" style="14" width="23.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A2" s="3"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4009,8 +4043,8 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A3" s="3"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -4049,16 +4083,16 @@
     <col min="6" max="6" style="14" width="21.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A2" s="3"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4075,8 +4109,8 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A3" s="3"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -4091,8 +4125,8 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87" customFormat="1" s="5">
-      <c r="A4" s="3"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87" customFormat="1" s="1">
+      <c r="A4" s="4"/>
       <c r="B4" s="8">
         <v>2</v>
       </c>
